--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58239E8-7395-42ED-87BB-7F345EFEA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80659F72-128B-403C-B46F-90C318A646AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$96</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J2">
         <v>1.23</v>
@@ -573,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.88</v>
+        <v>3.88</v>
       </c>
       <c r="J3">
         <v>1.44</v>
@@ -608,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="I4">
-        <v>2.88</v>
+        <v>4.88</v>
       </c>
       <c r="J4">
         <v>1.28</v>
@@ -643,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>1.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="J5">
         <v>1.1499999999999999</v>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J6">
         <v>2.0500000000000003</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>4.34</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>2.8200000000000003</v>
+        <v>5.01</v>
       </c>
       <c r="J8">
         <v>1.39</v>
@@ -783,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J9">
         <v>2.0700000000000003</v>
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J10">
         <v>2.37</v>
@@ -853,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J11">
         <v>1.8699999999999999</v>
@@ -888,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J12">
         <v>1.66</v>
@@ -923,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J13">
         <v>1.67</v>
@@ -958,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.7799999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J14">
         <v>2.37</v>
@@ -993,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J15">
         <v>1.06</v>
@@ -1028,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J16">
         <v>1.68</v>
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J18">
         <v>1.55</v>
@@ -1133,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J19">
         <v>0.98</v>
@@ -1168,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J20">
         <v>2.2600000000000002</v>
@@ -1203,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>2.33</v>
@@ -1238,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2.66</v>
+        <v>4.66</v>
       </c>
       <c r="J22">
         <v>1.23</v>
@@ -1273,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2.7300000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J23">
         <v>2.0700000000000003</v>
@@ -1308,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>1.5499999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="J24">
         <v>1.18</v>
@@ -1343,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J25">
         <v>2.25</v>
@@ -1378,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.3900000000000006</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J26">
         <v>1.2</v>
@@ -1413,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>2.4399999999999995</v>
+        <v>4.4399999999999995</v>
       </c>
       <c r="J27">
         <v>1.5799999999999998</v>
@@ -1448,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="J28">
         <v>1.72</v>
@@ -1483,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J29">
         <v>1.1299999999999999</v>
@@ -1518,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>1.9300000000000002</v>
+        <v>3.93</v>
       </c>
       <c r="J30">
         <v>2.39</v>
@@ -1553,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="J31">
         <v>1.6099999999999999</v>
@@ -1588,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>2.67</v>
+        <v>4.67</v>
       </c>
       <c r="J32">
         <v>1.5799999999999998</v>
@@ -1623,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>2.2599999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="J33">
         <v>2.21</v>
@@ -1658,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="J34">
         <v>1.0799999999999998</v>
@@ -1693,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J35">
         <v>1.91</v>
@@ -1728,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J36">
         <v>2.29</v>
@@ -1763,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J37">
         <v>2.4000000000000004</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.1899999999999995</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="J38">
         <v>1.38</v>
@@ -1833,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.46</v>
+        <v>4.46</v>
       </c>
       <c r="J39">
         <v>1.1599999999999999</v>
@@ -1868,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.7200000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.9300000000000002</v>
+        <v>3.93</v>
       </c>
       <c r="J41">
         <v>1.52</v>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J42">
         <v>1.32</v>
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>2.76</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.3499999999999999</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J44">
         <v>1.48</v>
@@ -2043,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J45">
         <v>1.17</v>
@@ -2078,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>1.88</v>
+        <v>3.88</v>
       </c>
       <c r="J46">
         <v>1.01</v>
@@ -2113,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>2.7200000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J47">
         <v>1.42</v>
@@ -2148,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>1.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="J48">
         <v>1.42</v>
@@ -2183,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J49">
         <v>2.2800000000000002</v>
@@ -2218,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="I50">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J50">
         <v>2.3400000000000003</v>
@@ -2253,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>2.76</v>
+        <v>4.76</v>
       </c>
       <c r="J51">
         <v>1.27</v>
@@ -2288,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="I52">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J52">
         <v>1.8599999999999999</v>
@@ -2323,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>1.65</v>
+        <v>3.65</v>
       </c>
       <c r="J53">
         <v>1.01</v>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.16</v>
+        <v>4.16</v>
       </c>
       <c r="J54">
         <v>1.81</v>
@@ -2393,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.79</v>
+        <v>4.79</v>
       </c>
       <c r="J55">
         <v>1.91</v>
@@ -2428,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="I56">
-        <v>2.3499999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J56">
         <v>1.06</v>
@@ -2463,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>2.5299999999999994</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J57">
         <v>1.9</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J59">
         <v>1.8299999999999998</v>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="I60">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J60">
         <v>1.24</v>
@@ -2603,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>2.79</v>
+        <v>4.79</v>
       </c>
       <c r="J61">
         <v>1.38</v>
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J62">
         <v>2.4200000000000004</v>
@@ -2673,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>1.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="J63">
         <v>2.1500000000000004</v>
@@ -2708,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J64">
         <v>1.9599999999999997</v>
@@ -2743,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J65">
         <v>1.78</v>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.33</v>
+        <v>4.33</v>
       </c>
       <c r="J66">
         <v>1.24</v>
@@ -2813,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.3900000000000006</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J67">
         <v>1.66</v>
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J68">
         <v>2.02</v>
@@ -2883,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J69">
         <v>2.1500000000000004</v>
@@ -2918,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>1.9900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="J70">
         <v>1.25</v>
@@ -2953,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J71">
         <v>1.48</v>
@@ -2988,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J72">
         <v>1.8399999999999999</v>
@@ -3023,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J73">
         <v>1.01</v>
@@ -3058,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="I74">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J74">
         <v>1.05</v>
@@ -3093,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="J75">
         <v>1.25</v>
@@ -3128,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J76">
         <v>2.1500000000000004</v>
@@ -3163,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>1.7799999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J77">
         <v>1.1099999999999999</v>
@@ -3198,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J78">
         <v>2.0700000000000003</v>
@@ -3233,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J79">
         <v>2.3200000000000003</v>
@@ -3268,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>1.7799999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J80">
         <v>1.18</v>
@@ -3303,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J81">
         <v>1.31</v>
@@ -3338,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>1.8900000000000001</v>
+        <v>3.89</v>
       </c>
       <c r="J82">
         <v>1.1499999999999999</v>
@@ -3373,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J83">
         <v>2.3000000000000003</v>
@@ -3408,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.2599999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="J84">
         <v>2.1500000000000004</v>
@@ -3443,7 +3446,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>2.75</v>
+        <v>5.01</v>
       </c>
       <c r="J85">
         <v>1.1399999999999999</v>
@@ -3478,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J86">
         <v>2.37</v>
@@ -3513,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J87">
         <v>1.65</v>
@@ -3548,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -3583,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>1.8599999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="J89">
         <v>2.0700000000000003</v>
@@ -3618,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.92</v>
+        <v>4.92</v>
       </c>
       <c r="J90">
         <v>2.0300000000000002</v>
@@ -3653,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="I91">
-        <v>1.54</v>
+        <v>3.54</v>
       </c>
       <c r="J91">
         <v>1.9599999999999997</v>
@@ -3688,7 +3691,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>2.2799999999999994</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="J92">
         <v>1.55</v>
@@ -3723,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>2.2699999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J93">
         <v>1.45</v>
@@ -3758,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>1.83</v>
+        <v>3.83</v>
       </c>
       <c r="J94">
         <v>1.06</v>
@@ -3793,7 +3796,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>2.6500000000000004</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J95">
         <v>1.1099999999999999</v>
@@ -3828,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J96">
         <v>1.9799999999999998</v>
@@ -3838,6 +3841,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80659F72-128B-403C-B46F-90C318A646AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58239E8-7395-42ED-87BB-7F345EFEA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$96</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,7 +472,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J2">
         <v>1.23</v>
@@ -576,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>3.88</v>
+        <v>1.88</v>
       </c>
       <c r="J3">
         <v>1.44</v>
@@ -611,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="I4">
-        <v>4.88</v>
+        <v>2.88</v>
       </c>
       <c r="J4">
         <v>1.28</v>
@@ -646,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>3.53</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J5">
         <v>1.1499999999999999</v>
@@ -681,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J6">
         <v>2.0500000000000003</v>
@@ -716,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>4.34</v>
+        <v>2.34</v>
       </c>
       <c r="J7">
         <v>1.8</v>
@@ -751,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>5.01</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J8">
         <v>1.39</v>
@@ -786,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J9">
         <v>2.0700000000000003</v>
@@ -821,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="I10">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J10">
         <v>2.37</v>
@@ -856,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J11">
         <v>1.8699999999999999</v>
@@ -891,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J12">
         <v>1.66</v>
@@ -926,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J13">
         <v>1.67</v>
@@ -961,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>5.01</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J14">
         <v>2.37</v>
@@ -996,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J15">
         <v>1.06</v>
@@ -1031,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="I16">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J16">
         <v>1.68</v>
@@ -1066,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J18">
         <v>1.55</v>
@@ -1136,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>4.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J19">
         <v>0.98</v>
@@ -1171,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>4.0999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J20">
         <v>2.2600000000000002</v>
@@ -1206,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2.33</v>
@@ -1241,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>4.66</v>
+        <v>2.66</v>
       </c>
       <c r="J22">
         <v>1.23</v>
@@ -1276,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>5.01</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J23">
         <v>2.0700000000000003</v>
@@ -1311,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>3.55</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="J24">
         <v>1.18</v>
@@ -1346,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J25">
         <v>2.25</v>
@@ -1381,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>4.3900000000000006</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J26">
         <v>1.2</v>
@@ -1416,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>4.4399999999999995</v>
+        <v>2.4399999999999995</v>
       </c>
       <c r="J27">
         <v>1.5799999999999998</v>
@@ -1451,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="J28">
         <v>1.72</v>
@@ -1486,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J29">
         <v>1.1299999999999999</v>
@@ -1521,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>3.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J30">
         <v>2.39</v>
@@ -1556,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J31">
         <v>1.6099999999999999</v>
@@ -1591,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>4.67</v>
+        <v>2.67</v>
       </c>
       <c r="J32">
         <v>1.5799999999999998</v>
@@ -1626,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>4.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J33">
         <v>2.21</v>
@@ -1661,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>3.79</v>
+        <v>1.79</v>
       </c>
       <c r="J34">
         <v>1.0799999999999998</v>
@@ -1696,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>4.93</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J35">
         <v>1.91</v>
@@ -1731,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J36">
         <v>2.29</v>
@@ -1766,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="J37">
         <v>2.4000000000000004</v>
@@ -1801,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>4.1899999999999995</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J38">
         <v>1.38</v>
@@ -1836,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>4.46</v>
+        <v>2.46</v>
       </c>
       <c r="J39">
         <v>1.1599999999999999</v>
@@ -1871,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>5.01</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -1906,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>3.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J41">
         <v>1.52</v>
@@ -1941,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J42">
         <v>1.32</v>
@@ -1976,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>5.01</v>
+        <v>2.76</v>
       </c>
       <c r="J43">
         <v>1.3499999999999999</v>
@@ -2011,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>3.76</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J44">
         <v>1.48</v>
@@ -2046,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J45">
         <v>1.17</v>
@@ -2081,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="I46">
-        <v>3.88</v>
+        <v>1.88</v>
       </c>
       <c r="J46">
         <v>1.01</v>
@@ -2116,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>5.01</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J47">
         <v>1.42</v>
@@ -2151,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>3.53</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J48">
         <v>1.42</v>
@@ -2186,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
       <c r="J49">
         <v>2.2800000000000002</v>
@@ -2221,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="I50">
-        <v>3.96</v>
+        <v>1.96</v>
       </c>
       <c r="J50">
         <v>2.3400000000000003</v>
@@ -2256,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="I51">
-        <v>4.76</v>
+        <v>2.76</v>
       </c>
       <c r="J51">
         <v>1.27</v>
@@ -2291,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="I52">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J52">
         <v>1.8599999999999999</v>
@@ -2326,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>3.65</v>
+        <v>1.65</v>
       </c>
       <c r="J53">
         <v>1.01</v>
@@ -2361,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="I54">
-        <v>4.16</v>
+        <v>2.16</v>
       </c>
       <c r="J54">
         <v>1.81</v>
@@ -2396,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>4.79</v>
+        <v>2.79</v>
       </c>
       <c r="J55">
         <v>1.91</v>
@@ -2431,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="I56">
-        <v>4.3499999999999996</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="J56">
         <v>1.06</v>
@@ -2466,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>4.5299999999999994</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J57">
         <v>1.9</v>
@@ -2501,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2536,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J59">
         <v>1.8299999999999998</v>
@@ -2571,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="I60">
-        <v>4.93</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J60">
         <v>1.24</v>
@@ -2606,7 +2603,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>4.79</v>
+        <v>2.79</v>
       </c>
       <c r="J61">
         <v>1.38</v>
@@ -2641,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>4.0999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J62">
         <v>2.4200000000000004</v>
@@ -2676,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>3.53</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J63">
         <v>2.1500000000000004</v>
@@ -2711,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J64">
         <v>1.9599999999999997</v>
@@ -2746,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>4.43</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J65">
         <v>1.78</v>
@@ -2781,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>4.33</v>
+        <v>2.33</v>
       </c>
       <c r="J66">
         <v>1.24</v>
@@ -2816,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>4.3900000000000006</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J67">
         <v>1.66</v>
@@ -2851,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J68">
         <v>2.02</v>
@@ -2886,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>4.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J69">
         <v>2.1500000000000004</v>
@@ -2921,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>3.99</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="J70">
         <v>1.25</v>
@@ -2956,7 +2953,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J71">
         <v>1.48</v>
@@ -2991,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J72">
         <v>1.8399999999999999</v>
@@ -3026,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J73">
         <v>1.01</v>
@@ -3061,7 +3058,7 @@
         <v>15</v>
       </c>
       <c r="I74">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J74">
         <v>1.05</v>
@@ -3096,7 +3093,7 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="J75">
         <v>1.25</v>
@@ -3131,7 +3128,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J76">
         <v>2.1500000000000004</v>
@@ -3166,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="I77">
-        <v>3.78</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="J77">
         <v>1.1099999999999999</v>
@@ -3201,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J78">
         <v>2.0700000000000003</v>
@@ -3236,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>4.43</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J79">
         <v>2.3200000000000003</v>
@@ -3271,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>3.78</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="J80">
         <v>1.18</v>
@@ -3306,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
       <c r="J81">
         <v>1.31</v>
@@ -3341,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>3.89</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J82">
         <v>1.1499999999999999</v>
@@ -3376,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>4.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J83">
         <v>2.3000000000000003</v>
@@ -3411,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>4.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J84">
         <v>2.1500000000000004</v>
@@ -3446,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>5.01</v>
+        <v>2.75</v>
       </c>
       <c r="J85">
         <v>1.1399999999999999</v>
@@ -3481,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J86">
         <v>2.37</v>
@@ -3516,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>3.96</v>
+        <v>1.96</v>
       </c>
       <c r="J87">
         <v>1.65</v>
@@ -3551,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -3586,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>3.86</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="J89">
         <v>2.0700000000000003</v>
@@ -3621,7 +3618,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>4.92</v>
+        <v>2.92</v>
       </c>
       <c r="J90">
         <v>2.0300000000000002</v>
@@ -3656,7 +3653,7 @@
         <v>15</v>
       </c>
       <c r="I91">
-        <v>3.54</v>
+        <v>1.54</v>
       </c>
       <c r="J91">
         <v>1.9599999999999997</v>
@@ -3691,7 +3688,7 @@
         <v>15</v>
       </c>
       <c r="I92">
-        <v>4.2799999999999994</v>
+        <v>2.2799999999999994</v>
       </c>
       <c r="J92">
         <v>1.55</v>
@@ -3726,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="I93">
-        <v>4.2699999999999996</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="J93">
         <v>1.45</v>
@@ -3761,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>3.83</v>
+        <v>1.83</v>
       </c>
       <c r="J94">
         <v>1.06</v>
@@ -3796,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>4.6500000000000004</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J95">
         <v>1.1099999999999999</v>
@@ -3831,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="I96">
-        <v>4.9800000000000004</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J96">
         <v>1.9799999999999998</v>
@@ -3841,7 +3838,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58239E8-7395-42ED-87BB-7F345EFEA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D469A33B-C309-40EC-B26D-45692B83CAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,16 +517,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -532,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>2.76</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,16 +552,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -570,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>1.88</v>
+        <v>3.63</v>
       </c>
       <c r="J3">
-        <v>1.44</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -584,16 +587,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -605,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>2.88</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J4">
-        <v>1.28</v>
+        <v>2.1100000000000003</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -643,10 +646,10 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>1.5299999999999998</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="J5">
-        <v>1.1499999999999999</v>
+        <v>2.04</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -663,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -672,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>2.59</v>
+        <v>4.05</v>
       </c>
       <c r="J6">
-        <v>2.0500000000000003</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -689,7 +692,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -698,25 +701,25 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>4.93</v>
       </c>
       <c r="J7">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -724,34 +727,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>2.8200000000000003</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J8">
-        <v>1.39</v>
+        <v>1.3299999999999998</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -783,10 +786,10 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>2.04</v>
+        <v>4.76</v>
       </c>
       <c r="J9">
-        <v>2.0700000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -794,16 +797,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>2.59</v>
+        <v>3.88</v>
       </c>
       <c r="J10">
-        <v>2.37</v>
+        <v>1.44</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -829,16 +832,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -847,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>1.8900000000000001</v>
+        <v>4.88</v>
       </c>
       <c r="J11">
-        <v>1.8699999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -864,19 +867,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -888,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>2.96</v>
+        <v>3.53</v>
       </c>
       <c r="J12">
-        <v>1.66</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -899,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.5099999999999998</v>
+        <v>4.59</v>
       </c>
       <c r="J13">
-        <v>1.67</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -958,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.7799999999999994</v>
+        <v>4.34</v>
       </c>
       <c r="J14">
-        <v>2.37</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -969,16 +972,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -987,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>2.29</v>
+        <v>4.82</v>
       </c>
       <c r="J15">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1022,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.08</v>
+        <v>4.04</v>
       </c>
       <c r="J16">
-        <v>1.68</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1039,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>2.25</v>
+        <v>4.59</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>2.37</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1074,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>2.5999999999999996</v>
+        <v>3.89</v>
       </c>
       <c r="J18">
-        <v>1.55</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1118,25 +1121,25 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>2.6400000000000006</v>
+        <v>4.96</v>
       </c>
       <c r="J19">
-        <v>0.98</v>
+        <v>1.66</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1144,13 +1147,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1162,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.0999999999999996</v>
+        <v>4.51</v>
       </c>
       <c r="J20">
-        <v>2.2600000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1188,25 +1191,25 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J21">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1214,16 +1217,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1232,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>2.66</v>
+        <v>4.29</v>
       </c>
       <c r="J22">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1258,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1267,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>2.7300000000000004</v>
+        <v>4.08</v>
       </c>
       <c r="J23">
-        <v>2.0700000000000003</v>
+        <v>1.68</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1284,13 +1287,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1308,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>1.5499999999999998</v>
+        <v>4.25</v>
       </c>
       <c r="J24">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1343,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>1.8900000000000001</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J25">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1363,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1375,13 +1378,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>2.3900000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J26">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1398,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1407,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>2.4399999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J27">
-        <v>1.5799999999999998</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1424,16 +1427,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1442,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>1.72</v>
+        <v>2.33</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1483,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.25</v>
+        <v>4.66</v>
       </c>
       <c r="J29">
-        <v>1.1299999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1494,13 +1497,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1512,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
       </c>
       <c r="I30">
-        <v>1.9300000000000002</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J30">
-        <v>2.39</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1538,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1547,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>1.58</v>
+        <v>3.55</v>
       </c>
       <c r="J31">
-        <v>1.6099999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1564,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1582,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>2.67</v>
+        <v>3.89</v>
       </c>
       <c r="J32">
-        <v>1.5799999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1599,34 +1602,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>2.2599999999999998</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J33">
-        <v>2.21</v>
+        <v>1.2</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1634,13 +1637,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1658,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>1.79</v>
+        <v>4.4399999999999995</v>
       </c>
       <c r="J34">
-        <v>1.0799999999999998</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1669,16 +1672,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1690,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>2.9299999999999997</v>
+        <v>3.85</v>
       </c>
       <c r="J35">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1704,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1725,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>2.59</v>
+        <v>4.25</v>
       </c>
       <c r="J36">
-        <v>2.29</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1739,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37">
-        <v>1.9</v>
+        <v>3.93</v>
       </c>
       <c r="J37">
-        <v>2.4000000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1786,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1798,10 +1801,10 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.1899999999999995</v>
+        <v>3.89</v>
       </c>
       <c r="J38">
-        <v>1.38</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1809,13 +1812,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1827,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.46</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J39">
-        <v>1.1599999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1868,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.7200000000000006</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J40">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1879,13 +1882,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1894,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.9300000000000002</v>
+        <v>3.58</v>
       </c>
       <c r="J41">
-        <v>1.52</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1932,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.1400000000000006</v>
+        <v>4.67</v>
       </c>
       <c r="J42">
-        <v>1.32</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1949,16 +1952,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1970,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>2.76</v>
+        <v>4.26</v>
       </c>
       <c r="J43">
-        <v>1.3499999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -2008,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.7599999999999998</v>
+        <v>3.79</v>
       </c>
       <c r="J44">
-        <v>1.48</v>
+        <v>1.0799999999999998</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2019,16 +2022,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2037,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I45">
-        <v>2.2999999999999998</v>
+        <v>4.93</v>
       </c>
       <c r="J45">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2054,13 +2057,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -2072,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
       <c r="I46">
-        <v>1.88</v>
+        <v>4.59</v>
       </c>
       <c r="J46">
-        <v>1.01</v>
+        <v>2.29</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2113,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>2.7200000000000006</v>
+        <v>3.9</v>
       </c>
       <c r="J47">
-        <v>1.42</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -2133,25 +2136,25 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>1.5299999999999998</v>
+        <v>4.1899999999999995</v>
       </c>
       <c r="J48">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2159,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2183,10 +2186,10 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.41</v>
+        <v>4.46</v>
       </c>
       <c r="J49">
-        <v>2.2800000000000002</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -2203,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2212,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I50">
-        <v>1.96</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J50">
-        <v>2.3400000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2229,16 +2232,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2247,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>2.76</v>
+        <v>3.93</v>
       </c>
       <c r="J51">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -2273,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2285,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I52">
-        <v>2.2200000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J52">
-        <v>1.8599999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2317,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>1.65</v>
+        <v>4.76</v>
       </c>
       <c r="J53">
-        <v>1.01</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2334,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2352,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.16</v>
+        <v>3.76</v>
       </c>
       <c r="J54">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2393,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.79</v>
+        <v>4.3</v>
       </c>
       <c r="J55">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2404,16 +2407,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2422,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
-        <v>2.3499999999999996</v>
+        <v>3.88</v>
       </c>
       <c r="J56">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -2448,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2460,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>2.5299999999999994</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J57">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2474,16 +2477,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2492,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58">
-        <v>1.63</v>
+        <v>3.53</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2509,16 +2512,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2527,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>1.75</v>
+        <v>4.41</v>
       </c>
       <c r="J59">
-        <v>1.8299999999999998</v>
+        <v>2.2800000000000002</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2544,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2562,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60">
-        <v>2.9299999999999997</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J60">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2579,13 +2582,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2603,10 +2606,10 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>2.79</v>
+        <v>3.96</v>
       </c>
       <c r="J61">
-        <v>1.38</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -2638,10 +2641,10 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.0999999999999996</v>
+        <v>4.76</v>
       </c>
       <c r="J62">
-        <v>2.4200000000000004</v>
+        <v>1.27</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -2658,7 +2661,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2667,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>1.5299999999999998</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J63">
-        <v>2.1500000000000004</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2684,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2702,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="J64">
-        <v>1.9599999999999997</v>
+        <v>1.01</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2719,34 +2722,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>2.4299999999999997</v>
+        <v>4.16</v>
       </c>
       <c r="J65">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2754,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2775,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66">
-        <v>2.33</v>
+        <v>4.79</v>
       </c>
       <c r="J66">
-        <v>1.24</v>
+        <v>1.91</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2801,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2813,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.3900000000000006</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J67">
-        <v>1.66</v>
+        <v>1.06</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -2839,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
       </c>
       <c r="I68">
-        <v>2.5999999999999996</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J68">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2859,16 +2862,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2880,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>2.6400000000000006</v>
+        <v>3.63</v>
       </c>
       <c r="J69">
-        <v>2.1500000000000004</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2918,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>1.9900000000000002</v>
+        <v>3.75</v>
       </c>
       <c r="J70">
-        <v>1.25</v>
+        <v>1.8299999999999998</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2953,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.4800000000000004</v>
+        <v>4.93</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2964,13 +2967,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -2988,10 +2991,10 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.2200000000000006</v>
+        <v>4.79</v>
       </c>
       <c r="J72">
-        <v>1.8399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -3023,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.84</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J73">
-        <v>1.01</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3034,13 +3037,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3058,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="I74">
-        <v>1.63</v>
+        <v>3.53</v>
       </c>
       <c r="J74">
-        <v>1.05</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -3093,10 +3096,10 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>2.75</v>
+        <v>4.7</v>
       </c>
       <c r="J75">
-        <v>1.25</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -3128,10 +3131,10 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>1.5699999999999998</v>
+        <v>4.43</v>
       </c>
       <c r="J76">
-        <v>2.1500000000000004</v>
+        <v>1.78</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -3157,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
       </c>
       <c r="I77">
-        <v>1.7799999999999998</v>
+        <v>4.33</v>
       </c>
       <c r="J77">
-        <v>1.1099999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3174,16 +3177,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3192,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78">
-        <v>2.4800000000000004</v>
+        <v>4.3900000000000006</v>
       </c>
       <c r="J78">
-        <v>2.0700000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -3218,25 +3221,25 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I79">
-        <v>2.4299999999999997</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J79">
-        <v>2.3200000000000003</v>
+        <v>2.02</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3244,13 +3247,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -3262,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
       </c>
       <c r="I80">
-        <v>1.7799999999999998</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J80">
-        <v>1.18</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3279,34 +3282,34 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>2.41</v>
+        <v>3.99</v>
       </c>
       <c r="J81">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3314,34 +3317,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>1.8900000000000001</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J82">
-        <v>1.1499999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3349,16 +3352,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3370,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>2.0099999999999998</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J83">
-        <v>2.3000000000000003</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3384,13 +3387,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3408,10 +3411,10 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.2599999999999998</v>
+        <v>4.84</v>
       </c>
       <c r="J84">
-        <v>2.1500000000000004</v>
+        <v>1.01</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3419,13 +3422,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -3443,10 +3446,10 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>2.75</v>
+        <v>3.63</v>
       </c>
       <c r="J85">
-        <v>1.1399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3454,13 +3457,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -3478,10 +3481,10 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>2.17</v>
+        <v>4.75</v>
       </c>
       <c r="J86">
-        <v>2.37</v>
+        <v>1.25</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3489,13 +3492,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -3513,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>1.96</v>
+        <v>3.57</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>2.2999999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J88">
-        <v>1.8</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -3568,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>1.8599999999999999</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J89">
         <v>2.0700000000000003</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3618,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="J90">
-        <v>2.0300000000000002</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3629,7 +3632,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -3638,25 +3641,25 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>1.54</v>
+        <v>3.78</v>
       </c>
       <c r="J91">
-        <v>1.9599999999999997</v>
+        <v>1.18</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3664,16 +3667,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3682,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>2.2799999999999994</v>
+        <v>4.41</v>
       </c>
       <c r="J92">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3699,7 +3702,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3708,7 +3711,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I93">
-        <v>2.2699999999999996</v>
+        <v>3.89</v>
       </c>
       <c r="J93">
-        <v>1.45</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3734,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>1.83</v>
+        <v>4.01</v>
       </c>
       <c r="J94">
-        <v>1.06</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -3778,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3787,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I95">
-        <v>2.6500000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="J95">
-        <v>1.1099999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3804,40 +3807,426 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>4.75</v>
+      </c>
+      <c r="J96">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97">
+        <v>4.17</v>
+      </c>
+      <c r="J97">
+        <v>2.37</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>3.96</v>
+      </c>
+      <c r="J98">
+        <v>1.65</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99">
+        <v>4.3</v>
+      </c>
+      <c r="J99">
+        <v>1.8</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100">
+        <v>3.86</v>
+      </c>
+      <c r="J100">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <v>4.92</v>
+      </c>
+      <c r="J101">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <v>3.54</v>
+      </c>
+      <c r="J102">
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>206</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96">
-        <v>2.9800000000000004</v>
-      </c>
-      <c r="J96">
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="J103">
+        <v>1.55</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J104">
+        <v>1.45</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105">
+        <v>3.83</v>
+      </c>
+      <c r="J105">
+        <v>1.06</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J106">
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J107">
         <v>1.9799999999999998</v>
       </c>
-      <c r="K96">
+      <c r="K107">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58239E8-7395-42ED-87BB-7F345EFEA508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E04E89-49FE-4EF4-8898-FD748F2DAE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$107</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,16 +517,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -532,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,16 +552,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -570,13 +573,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="J3">
-        <v>1.44</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -584,16 +587,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -605,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>2.88</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J4">
-        <v>1.28</v>
+        <v>2.1100000000000003</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -643,10 +646,10 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>1.5299999999999998</v>
+        <v>2.0600000000000005</v>
       </c>
       <c r="J5">
-        <v>1.1499999999999999</v>
+        <v>2.04</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -663,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -672,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>2.59</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J6">
-        <v>2.0500000000000003</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -689,7 +692,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -698,25 +701,25 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>2.34</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J7">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -724,34 +727,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>2.8200000000000003</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J8">
-        <v>1.39</v>
+        <v>1.3299999999999998</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -759,13 +762,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -783,10 +786,10 @@
         <v>11</v>
       </c>
       <c r="I9">
-        <v>2.04</v>
+        <v>2.76</v>
       </c>
       <c r="J9">
-        <v>2.0700000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -794,16 +797,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>2.59</v>
+        <v>1.88</v>
       </c>
       <c r="J10">
-        <v>2.37</v>
+        <v>1.44</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -829,16 +832,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -847,16 +850,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>1.8900000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="J11">
-        <v>1.8699999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -864,19 +867,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -888,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>2.96</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J12">
-        <v>1.66</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -899,13 +902,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.5099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="J13">
-        <v>1.67</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -958,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.7799999999999994</v>
+        <v>2.34</v>
       </c>
       <c r="J14">
-        <v>2.37</v>
+        <v>1.8</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -969,16 +972,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -987,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>2.29</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J15">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1022,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J16">
-        <v>1.68</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1039,16 +1042,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>2.25</v>
+        <v>2.59</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>2.37</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1074,16 +1077,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1092,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>2.5999999999999996</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J18">
-        <v>1.55</v>
+        <v>1.8699999999999999</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1118,25 +1121,25 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>2.6400000000000006</v>
+        <v>2.96</v>
       </c>
       <c r="J19">
-        <v>0.98</v>
+        <v>1.66</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1144,13 +1147,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1162,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2.0999999999999996</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J20">
-        <v>2.2600000000000002</v>
+        <v>1.67</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1188,25 +1191,25 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J21">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1214,16 +1217,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1232,16 +1235,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I22">
-        <v>2.66</v>
+        <v>2.29</v>
       </c>
       <c r="J22">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1258,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1267,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>2.7300000000000004</v>
+        <v>2.08</v>
       </c>
       <c r="J23">
-        <v>2.0700000000000003</v>
+        <v>1.68</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1284,13 +1287,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1308,10 +1311,10 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>1.5499999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="J24">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1343,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="I25">
-        <v>1.8900000000000001</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J25">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1354,7 +1357,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1363,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1375,13 +1378,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>2.3900000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J26">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1398,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1407,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I27">
-        <v>2.4399999999999995</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J27">
-        <v>1.5799999999999998</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1424,16 +1427,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1442,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1.72</v>
+        <v>2.33</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1483,10 +1486,10 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2.25</v>
+        <v>2.66</v>
       </c>
       <c r="J29">
-        <v>1.1299999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1494,13 +1497,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1512,16 +1515,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
       </c>
       <c r="I30">
-        <v>1.9300000000000002</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J30">
-        <v>2.39</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1538,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1547,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>1.58</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="J31">
-        <v>1.6099999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -1564,16 +1567,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1582,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32">
-        <v>2.67</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J32">
-        <v>1.5799999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1599,34 +1602,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>2.2599999999999998</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J33">
-        <v>2.21</v>
+        <v>1.2</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1634,13 +1637,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1658,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>1.79</v>
+        <v>2.4399999999999995</v>
       </c>
       <c r="J34">
-        <v>1.0799999999999998</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1669,16 +1672,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1690,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>2.9299999999999997</v>
+        <v>1.85</v>
       </c>
       <c r="J35">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1704,16 +1707,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1725,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>2.59</v>
+        <v>2.25</v>
       </c>
       <c r="J36">
-        <v>2.29</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -1739,16 +1742,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1760,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I37">
-        <v>1.9</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J37">
-        <v>2.4000000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -1774,7 +1777,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1786,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1798,10 +1801,10 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.1899999999999995</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J38">
-        <v>1.38</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -1809,13 +1812,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1827,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
       <c r="I39">
-        <v>2.46</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J39">
-        <v>1.1599999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1868,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.7200000000000006</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J40">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -1879,13 +1882,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1894,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.9300000000000002</v>
+        <v>1.58</v>
       </c>
       <c r="J41">
-        <v>1.52</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1932,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.1400000000000006</v>
+        <v>2.67</v>
       </c>
       <c r="J42">
-        <v>1.32</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1949,16 +1952,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1970,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>2.76</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J43">
-        <v>1.3499999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -2008,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.7599999999999998</v>
+        <v>1.79</v>
       </c>
       <c r="J44">
-        <v>1.48</v>
+        <v>1.0799999999999998</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2019,16 +2022,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2037,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I45">
-        <v>2.2999999999999998</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J45">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2054,13 +2057,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -2072,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
       </c>
       <c r="I46">
-        <v>1.88</v>
+        <v>2.59</v>
       </c>
       <c r="J46">
-        <v>1.01</v>
+        <v>2.29</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -2113,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>2.7200000000000006</v>
+        <v>1.9</v>
       </c>
       <c r="J47">
-        <v>1.42</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -2133,25 +2136,25 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>1.5299999999999998</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J48">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2159,13 +2162,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2183,10 +2186,10 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.41</v>
+        <v>2.46</v>
       </c>
       <c r="J49">
-        <v>2.2800000000000002</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2194,7 +2197,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -2203,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2212,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I50">
-        <v>1.96</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J50">
-        <v>2.3400000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2229,16 +2232,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2247,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51">
-        <v>2.76</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J51">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -2273,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2285,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I52">
-        <v>2.2200000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J52">
-        <v>1.8599999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2299,16 +2302,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2317,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I53">
-        <v>1.65</v>
+        <v>2.76</v>
       </c>
       <c r="J53">
-        <v>1.01</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -2334,13 +2337,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2352,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>15</v>
       </c>
       <c r="I54">
-        <v>2.16</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J54">
-        <v>1.81</v>
+        <v>1.48</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2393,10 +2396,10 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.79</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J55">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -2404,16 +2407,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2422,16 +2425,16 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
-        <v>2.3499999999999996</v>
+        <v>1.88</v>
       </c>
       <c r="J56">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -2448,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2460,13 +2463,13 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>2.5299999999999994</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J57">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2474,16 +2477,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2492,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58">
-        <v>1.63</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -2509,16 +2512,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2527,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <v>1.75</v>
+        <v>2.41</v>
       </c>
       <c r="J59">
-        <v>1.8299999999999998</v>
+        <v>2.2800000000000002</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -2544,16 +2547,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2562,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I60">
-        <v>2.9299999999999997</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J60">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -2579,13 +2582,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2603,10 +2606,10 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>2.79</v>
+        <v>1.96</v>
       </c>
       <c r="J61">
-        <v>1.38</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -2638,10 +2641,10 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.0999999999999996</v>
+        <v>2.76</v>
       </c>
       <c r="J62">
-        <v>2.4200000000000004</v>
+        <v>1.27</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -2658,7 +2661,7 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2667,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>1.5299999999999998</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J63">
-        <v>2.1500000000000004</v>
+        <v>1.8599999999999999</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -2684,16 +2687,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2702,16 +2705,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="J64">
-        <v>1.9599999999999997</v>
+        <v>1.01</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -2719,34 +2722,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I65">
-        <v>2.4299999999999997</v>
+        <v>2.16</v>
       </c>
       <c r="J65">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -2754,16 +2757,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2775,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66">
-        <v>2.33</v>
+        <v>2.79</v>
       </c>
       <c r="J66">
-        <v>1.24</v>
+        <v>1.91</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2801,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2813,10 +2816,10 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>2.3900000000000006</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="J67">
-        <v>1.66</v>
+        <v>1.06</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -2839,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="s">
         <v>15</v>
       </c>
       <c r="I68">
-        <v>2.5999999999999996</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J68">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -2859,16 +2862,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2880,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>2.6400000000000006</v>
+        <v>1.63</v>
       </c>
       <c r="J69">
-        <v>2.1500000000000004</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2918,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>1.9900000000000002</v>
+        <v>1.75</v>
       </c>
       <c r="J70">
-        <v>1.25</v>
+        <v>1.8299999999999998</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2953,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.4800000000000004</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -2964,13 +2967,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
@@ -2988,10 +2991,10 @@
         <v>15</v>
       </c>
       <c r="I72">
-        <v>2.2200000000000006</v>
+        <v>2.79</v>
       </c>
       <c r="J72">
-        <v>1.8399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -3023,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>2.84</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J73">
-        <v>1.01</v>
+        <v>2.4200000000000004</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3034,13 +3037,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -3058,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="I74">
-        <v>1.63</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J74">
-        <v>1.05</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -3093,10 +3096,10 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J75">
-        <v>1.25</v>
+        <v>1.9599999999999997</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -3128,10 +3131,10 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>1.5699999999999998</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J76">
-        <v>2.1500000000000004</v>
+        <v>1.78</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -3157,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
       </c>
       <c r="I77">
-        <v>1.7799999999999998</v>
+        <v>2.33</v>
       </c>
       <c r="J77">
-        <v>1.1099999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3174,16 +3177,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3192,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I78">
-        <v>2.4800000000000004</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="J78">
-        <v>2.0700000000000003</v>
+        <v>1.66</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -3218,25 +3221,25 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I79">
-        <v>2.4299999999999997</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J79">
-        <v>2.3200000000000003</v>
+        <v>2.02</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -3244,13 +3247,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -3262,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>15</v>
       </c>
       <c r="I80">
-        <v>1.7799999999999998</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J80">
-        <v>1.18</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -3279,34 +3282,34 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I81">
-        <v>2.41</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="J81">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -3314,34 +3317,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I82">
-        <v>1.8900000000000001</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J82">
-        <v>1.1499999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3349,16 +3352,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3370,13 +3373,13 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>2.0099999999999998</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J83">
-        <v>2.3000000000000003</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -3384,13 +3387,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
@@ -3408,10 +3411,10 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.2599999999999998</v>
+        <v>2.84</v>
       </c>
       <c r="J84">
-        <v>2.1500000000000004</v>
+        <v>1.01</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -3419,13 +3422,13 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -3443,10 +3446,10 @@
         <v>15</v>
       </c>
       <c r="I85">
-        <v>2.75</v>
+        <v>1.63</v>
       </c>
       <c r="J85">
-        <v>1.1399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -3454,13 +3457,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -3478,10 +3481,10 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="J86">
-        <v>2.37</v>
+        <v>1.25</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -3489,13 +3492,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -3513,10 +3516,10 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>1.96</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J87">
-        <v>1.65</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -3548,10 +3551,10 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>2.2999999999999998</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="J88">
-        <v>1.8</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -3568,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3577,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I89">
-        <v>1.8599999999999999</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J89">
         <v>2.0700000000000003</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3618,10 +3621,10 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.92</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J90">
-        <v>2.0300000000000002</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -3629,7 +3632,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -3638,25 +3641,25 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>1.54</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="J91">
-        <v>1.9599999999999997</v>
+        <v>1.18</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -3664,16 +3667,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3682,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I92">
-        <v>2.2799999999999994</v>
+        <v>2.41</v>
       </c>
       <c r="J92">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -3699,7 +3702,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
@@ -3708,7 +3711,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3717,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I93">
-        <v>2.2699999999999996</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J93">
-        <v>1.45</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -3734,16 +3737,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3755,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>1.83</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J94">
-        <v>1.06</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -3778,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3787,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I95">
-        <v>2.6500000000000004</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J95">
-        <v>1.1099999999999999</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -3804,40 +3807,426 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
+        <v>199</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>2.75</v>
+      </c>
+      <c r="J96">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97">
+        <v>2.17</v>
+      </c>
+      <c r="J97">
+        <v>2.37</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>1.96</v>
+      </c>
+      <c r="J98">
+        <v>1.65</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J99">
+        <v>1.8</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100">
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="J100">
+        <v>2.0700000000000003</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <v>2.92</v>
+      </c>
+      <c r="J101">
+        <v>2.0300000000000002</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102">
+        <v>1.54</v>
+      </c>
+      <c r="J102">
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>206</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B103" t="s">
         <v>16</v>
       </c>
-      <c r="C96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
-      <c r="I96">
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103">
+        <v>2.2799999999999994</v>
+      </c>
+      <c r="J103">
+        <v>1.55</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104">
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="J104">
+        <v>1.45</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105">
+        <v>1.83</v>
+      </c>
+      <c r="J105">
+        <v>1.06</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J106">
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
         <v>2.9800000000000004</v>
       </c>
-      <c r="J96">
+      <c r="J107">
         <v>1.9799999999999998</v>
       </c>
-      <c r="K96">
+      <c r="K107">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K107" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D469A33B-C309-40EC-B26D-45692B83CAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E78423-5BA4-40EC-8C07-AE914C3EEF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="J2">
         <v>1.67</v>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>4.93</v>
+        <v>5.01</v>
       </c>
       <c r="J7">
         <v>1.89</v>
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>4.88</v>
+        <v>5.01</v>
       </c>
       <c r="J11">
         <v>1.28</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="J15">
         <v>1.39</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="J19">
         <v>1.66</v>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>4.7799999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J21">
         <v>2.37</v>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>4.7300000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J30">
         <v>2.0700000000000003</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>4.67</v>
+        <v>5.01</v>
       </c>
       <c r="J42">
         <v>1.5799999999999998</v>
@@ -2046,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>4.93</v>
+        <v>5.01</v>
       </c>
       <c r="J45">
         <v>1.91</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>4.7200000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J50">
         <v>1.5</v>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>4.76</v>
+        <v>5.01</v>
       </c>
       <c r="J53">
         <v>1.3499999999999999</v>
@@ -2466,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>4.7200000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J57">
         <v>1.42</v>
@@ -2956,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>4.93</v>
+        <v>5.01</v>
       </c>
       <c r="J71">
         <v>1.24</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J84">
         <v>1.01</v>
@@ -3831,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>4.75</v>
+        <v>5.01</v>
       </c>
       <c r="J96">
         <v>1.1399999999999999</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>4.92</v>
+        <v>5.01</v>
       </c>
       <c r="J101">
         <v>2.0300000000000002</v>
@@ -4181,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="I106">
-        <v>4.6500000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J106">
         <v>1.1099999999999999</v>
@@ -4216,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="I107">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J107">
         <v>1.9799999999999998</v>

--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E78423-5BA4-40EC-8C07-AE914C3EEF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA6DD9B-30C9-4D8A-8E97-23D1637376F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>

--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E04E89-49FE-4EF4-8898-FD748F2DAE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C47141-12A6-44E9-81D5-F5D9A53829BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="J2">
         <v>1.67</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <v>2.9299999999999997</v>
+        <v>3.01</v>
       </c>
       <c r="J7">
         <v>1.89</v>
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="I11">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="J11">
         <v>1.28</v>
@@ -996,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.8200000000000003</v>
+        <v>3.01</v>
       </c>
       <c r="J15">
         <v>1.39</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="J19">
         <v>1.66</v>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2.7799999999999994</v>
+        <v>3.01</v>
       </c>
       <c r="J21">
         <v>2.37</v>
@@ -1521,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="I30">
-        <v>2.7300000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J30">
         <v>2.0700000000000003</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.67</v>
+        <v>3.01</v>
       </c>
       <c r="J42">
         <v>1.5799999999999998</v>
@@ -2046,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.9299999999999997</v>
+        <v>3.01</v>
       </c>
       <c r="J45">
         <v>1.91</v>
@@ -2221,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>2.7200000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J50">
         <v>1.5</v>
@@ -2326,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="I53">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="J53">
         <v>1.3499999999999999</v>
@@ -2466,7 +2466,7 @@
         <v>15</v>
       </c>
       <c r="I57">
-        <v>2.7200000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J57">
         <v>1.42</v>
@@ -2956,7 +2956,7 @@
         <v>11</v>
       </c>
       <c r="I71">
-        <v>2.9299999999999997</v>
+        <v>3.01</v>
       </c>
       <c r="J71">
         <v>1.24</v>
@@ -3411,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="I84">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="J84">
         <v>1.01</v>
@@ -3831,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="J96">
         <v>1.1399999999999999</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="J101">
         <v>2.0300000000000002</v>
@@ -4181,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="I106">
-        <v>2.6500000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J106">
         <v>1.1099999999999999</v>
@@ -4216,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="I107">
-        <v>2.9800000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J107">
         <v>1.9799999999999998</v>
